--- a/Vue.js学習.xlsx
+++ b/Vue.js学習.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abbbb\SVN\LearningVue.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EF0E30-CF56-40BF-AD1E-70E5754F81C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C82590-9BC1-476B-B69A-3CBE63C54787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1-1Vue3のセットアップ" sheetId="1" r:id="rId1"/>
+    <sheet name="1-2より本格的なプロジェクト" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -161,6 +162,163 @@
     </rPh>
     <rPh sb="68" eb="69">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタンドアロン版vue:devtools</t>
+    <rPh sb="7" eb="8">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>npm install -g @vue/devtools</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記コマンドでインストール可能</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;script src="http://localhost:8098"&gt;&lt;/script&gt;
+このタグも必要になる</t>
+    <rPh sb="51" eb="53">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発終了後はタグ消し</t>
+    <rPh sb="0" eb="5">
+      <t>カイハツシュウリョウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Node.jsとnpm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>npm:パッケージ管理ツール
+Node.jsに組み込まれている</t>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Node.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javascript実行環境
+スクリプトをその場で実行できるようにするもの</t>
+    <rPh sb="10" eb="14">
+      <t>ジッコウカンキョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバープログラムそのものをjavascriptで開発することが可能になる</t>
+    <rPh sb="25" eb="27">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奇数番号と偶数番号
+偶数番号は長期サポートの安定
+奇数番号はその逆</t>
+    <rPh sb="0" eb="4">
+      <t>キスウバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>グウスウバンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>グウスウバンゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チョウキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>キスウバンゴウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ギャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vue CLI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発のためのコマンドツール
+ごく簡単な表示を作ったり、本格的なアプリケーションプロジェクトを構築したりプログラムを実行しブラウザに表示させたり、開発に役立つ機能が用意されてる</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ホンカクテキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ヤクダ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヨウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -490,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="18"/>
@@ -533,6 +691,90 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="36">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="72">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A33C83-1E6D-40F5-BEF1-25240D090438}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="26" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="36">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="54">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="54">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="72">
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="126">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vue.js学習.xlsx
+++ b/Vue.js学習.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abbbb\SVN\LearningVue.js\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ドキュメント\SVN\LearningVue.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C82590-9BC1-476B-B69A-3CBE63C54787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5967D49-16D5-4D24-BC4E-A5015A3CBD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10200" windowHeight="10920" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1Vue3のセットアップ" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -319,6 +319,54 @@
     </rPh>
     <rPh sb="81" eb="83">
       <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションの作成</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラムを配置するためのフォルダとファイルを作成する
+app.vue</t>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記載方法</t>
+    <rPh sb="0" eb="4">
+      <t>キサイホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;template&gt;というタグに簡単なHTMLの表示を用紙してあるだけの単純なもの
+htmlなら&lt;html&gt;のタグなどがるが、今回は表示するだけである</t>
+    <rPh sb="16" eb="18">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -654,7 +702,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="26.75" style="1"/>
   </cols>
@@ -667,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="126">
+    <row r="2" spans="1:2" ht="131.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -675,7 +723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="72">
+    <row r="3" spans="1:2" ht="93.75">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -683,7 +731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="180">
+    <row r="4" spans="1:2" ht="206.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -699,12 +747,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="36">
+    <row r="6" spans="1:2" ht="37.5">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="72">
+    <row r="7" spans="1:2" ht="75">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -722,13 +770,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A33C83-1E6D-40F5-BEF1-25240D090438}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="26" style="1"/>
   </cols>
@@ -741,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="36">
+    <row r="2" spans="1:2" ht="37.5">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -749,7 +797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="54">
+    <row r="3" spans="1:2" ht="56.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -757,22 +805,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="54">
+    <row r="4" spans="1:2" ht="56.25">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="72">
+    <row r="5" spans="1:2" ht="75">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="126">
+    <row r="6" spans="1:2" ht="131.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="75">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="112.5">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Vue.js学習.xlsx
+++ b/Vue.js学習.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ドキュメント\SVN\LearningVue.js\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abbbb\SVN\LearningVue.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5967D49-16D5-4D24-BC4E-A5015A3CBD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825E82A6-EFE2-467D-B231-983642967019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10200" windowHeight="10920" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1Vue3のセットアップ" sheetId="1" r:id="rId1"/>
     <sheet name="1-2より本格的なプロジェクト" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -368,6 +369,265 @@
     <rPh sb="66" eb="68">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P54 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>distフォルダの中身</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>distフォルダの中のファイルをまとめてアップロードするとアプリケーションを公開できる</t>
+    <rPh sb="9" eb="10">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>distファイルが表示されない。</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">真っ白の画面が表示された
+ビルドされるファイルに記述されてるファイルのリンクがすべて絶対パスでかかれているため。
+Scrの値を見ると絶対パスで書かれてる。
+→dist内のファイルを相対パスに変更する必要あり
+</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="107" eb="110">
+      <t>ヒツヨウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作が重い
+Vue CLI
+↓
+Vite</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vue CLIは動作が重い
+→様々な機能が入ってるため。
+それに変わるものが用意されてる。
+もう一つのプロジェクト管理ツール。</t>
+    <rPh sb="8" eb="10">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトの生成、試験サーバによる実行、ビルドなどが行えますが、Vue CLIに比べて動作がてきぱきしている。</t>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どちらを使うべきなのか</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>快適にできるほうがいい
+とりあえずはVite使用＿</t>
+    <rPh sb="0" eb="2">
+      <t>カイテキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GUIツールを使用する</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GUIツールとは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラミングが不要でマウスによる簡単な操作でAIプログラミングを可能とするツール
+Pythonや機械学習などの専門知識の乏しい初心者でも簡単にAIを構築できるようになった。</t>
+    <rPh sb="8" eb="10">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="49" eb="53">
+      <t>キカイガクシュウ</t>
+    </rPh>
+    <rPh sb="56" eb="60">
+      <t>センモンチシキ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>トボ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>ショシンシャ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vue　CLIはGUIによるツールも提供してくれる。
+その割にコマンドを使って実行する。
+起動されるのがVueプロジェクトマネージャ</t>
+    <rPh sb="18" eb="20">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト内</t>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト依存
+プロジェクトで使用されてるソフトウェアである。
+依存をinstallをクリックするとパッケージのinstallができる</t>
+    <rPh sb="6" eb="8">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６６ページまで</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -702,7 +962,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="26.75" style="1"/>
   </cols>
@@ -715,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="131.25">
+    <row r="2" spans="1:2" ht="126">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -723,7 +983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="93.75">
+    <row r="3" spans="1:2" ht="72">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -731,7 +991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="206.25">
+    <row r="4" spans="1:2" ht="180">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -747,12 +1007,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="37.5">
+    <row r="6" spans="1:2" ht="36">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75">
+    <row r="7" spans="1:2" ht="72">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -770,13 +1030,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A33C83-1E6D-40F5-BEF1-25240D090438}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="26" style="1"/>
   </cols>
@@ -789,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="37.5">
+    <row r="2" spans="1:2" ht="36">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -797,7 +1057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="56.25">
+    <row r="3" spans="1:2" ht="54">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -805,17 +1065,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="56.25">
+    <row r="4" spans="1:2" ht="54">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75">
+    <row r="5" spans="1:2" ht="72">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="131.25">
+    <row r="6" spans="1:2" ht="126">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -823,7 +1083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75">
+    <row r="7" spans="1:2" ht="72">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -831,16 +1091,103 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="112.5">
+    <row r="8" spans="1:2" ht="108">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="72">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="180">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="144">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="90">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="36">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="108">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="144">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="90">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13073446-1752-4B17-929C-C3837A14504C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Vue.js学習.xlsx
+++ b/Vue.js学習.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abbbb\SVN\LearningVue.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825E82A6-EFE2-467D-B231-983642967019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{1D9CF46E-A760-4A19-A36E-2EF404DF96E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -439,10 +440,7 @@
       <t>ナイ</t>
     </rPh>
     <rPh sb="90" eb="92">
-      <t>ソウタイ</t>
-    </rPh>
-    <rPh sb="107" eb="110">
-      <t>ヒツヨウリ</t>
+      <t>ソウタイヒツヨウリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -628,6 +626,198 @@
   </si>
   <si>
     <t>６６ページまで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>return で戻り値設定</t>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>チセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mounted(){}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>88より</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組み込み時に自動で発動</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setInterval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>javascriptの関数
+一定時間ごとに処理を実行する
+タイマー機能</t>
+    <rPh sb="11" eb="13">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>イッテイジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構文</t>
+    <rPh sb="0" eb="2">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setInterval(関数,ミリ秒）</t>
+    <rPh sb="12" eb="14">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this.count++
+this.message = 'Count: ' + this.count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this.countのthisはオブジェクト自身
+オブジェクトの中のプロパティを捜査している</t>
+    <rPh sb="22" eb="24">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（）＝＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">アロー演算子
+</t>
+    <rPh sb="3" eb="6">
+      <t>エンザンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>function 関数名(引数){……処理……｝</t>
+    <rPh sb="9" eb="12">
+      <t>カンスウメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通の関数の書き方</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>function (引数){……処理……｝</t>
+    <rPh sb="10" eb="12">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setIntervalの引数として書くときはこのように短縮できる</t>
+    <rPh sb="12" eb="14">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タンシュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（引数）＝＞｛……処理……｝</t>
+    <rPh sb="1" eb="3">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらに短くしたもの
+関数を値として使用するときに使う</t>
+    <rPh sb="3" eb="4">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1030,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A33C83-1E6D-40F5-BEF1-25240D090438}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="18"/>
@@ -1171,6 +1361,80 @@
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="72">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="72">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="36">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="36">
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="36">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="54">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Vue.js学習.xlsx
+++ b/Vue.js学習.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abbbb\SVN\LearningVue.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{1D9CF46E-A760-4A19-A36E-2EF404DF96E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970FBAAD-CFAB-421B-B9FB-EB35AF0DB890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -817,6 +816,462 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション・オブジェクトが生成された際に実行される処理の記述
+mountedはオブジェクトを組み込んだ時の処理
+そのため生成のほうが先のため先に処理される
+初期化されるときに使用される</t>
+    <rPh sb="16" eb="18">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>countがデータになくてもいい理由</t>
+    <rPh sb="16" eb="18">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面に表示されているかどうか
+messageは{{ message}}として画面に埋め込まれており、値を変更したら表示も更新する必要があった
+countは、内部的に数字をカウントしているのみで、画面に表示されていない</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>ナイブテキ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先にdataが読み出しされてそのあとにcreated,mountedの順番で呼ばれる</t>
+    <rPh sb="0" eb="1">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それであるなら、this.messageが上書きされてても問題なく表示可能</t>
+    <rPh sb="21" eb="23">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>ヒョウジカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dataに置くべきものは画面に表示するもの</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{　}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vue3で使うものはすべて「マウントした要素」の中になければいけない</t>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウント
+☞組み込み先に指定したHTML要素のこと
+☞今回は、
+mount('#app')としてるため
+&lt;div id ="app"&gt;のことを指す
+この中でしか使えない</t>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML要素を出力する</t>
+    <rPh sb="4" eb="6">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;div v-html = "変数名"&gt;&lt;/div&gt;</t>
+    <rPh sb="15" eb="18">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>101P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num: Math.floor(Math.random() * 100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乱数作成
+０以上１未満の実数作成
+それに１００をかけて整数にしてる</t>
+    <rPh sb="0" eb="2">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小数点以下を切り捨てる関数（乱数＊整数）</t>
+    <rPh sb="0" eb="5">
+      <t>ショウスウテンイカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Math.floorで小数点の切り捨てをする。</t>
+    <rPh sb="11" eb="14">
+      <t>ショウスウテン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三項演算子</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>エンザンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{ num + 'は、' + (num % 2 == 0 ? '偶数' : '奇数') + 'です。'}}
+割り算をして余りを見てる</t>
+    <rPh sb="56" eb="57">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapによる繰り返し処理</t>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;配列&gt;.map(関数)
+引数に関数を入れる
+引数に配列のキーと値が渡される</t>
+    <rPh sb="1" eb="3">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>具体的かたち
+&lt;配列&gt;.map((value,key)=&gt;処理)</t>
+    <rPh sb="0" eb="3">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列の各要素についてkeyとvalueという引数にキーと値を渡して関数を呼び出す形となる
+各要素を修正した新しい配列が返される
+{{}}の中でmapを利用するにはjoinメソッドを呼び出して各項目の値を１つのテキストにまとめたものを出力すればいい</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カクヨウソ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>カクヨウソ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列のデータを出力する</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1146,6 +1601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -1220,15 +1676,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A33C83-1E6D-40F5-BEF1-25240D090438}">
-  <dimension ref="A1:B28"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="30.58203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="26" style="1"/>
+    <col min="1" max="16384" width="30.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1435,6 +1892,104 @@
       </c>
       <c r="B28" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="162">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="162">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="54">
+      <c r="A31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="36">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="126">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="36">
+      <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="54">
+      <c r="A36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="36">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="72">
+      <c r="A38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="54">
+      <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="162">
+      <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1445,6 +2000,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13073446-1752-4B17-929C-C3837A14504C}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Vue.js学習.xlsx
+++ b/Vue.js学習.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abbbb\SVN\LearningVue.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970FBAAD-CFAB-421B-B9FB-EB35AF0DB890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9340C045-88B1-43B7-8FC5-FDD8C2C5CAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -1272,6 +1272,636 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-●●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このような属性がある</t>
+    <rPh sb="5" eb="7">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-bind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性に値をバインドする
+タグの属性にVue3で用意した値を設定すること。</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-bind:属性名 ="設定する値"</t>
+    <rPh sb="7" eb="10">
+      <t>ゾクセイメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-bindを付けるとjavascriptの式として扱われる。</t>
+    <rPh sb="7" eb="8">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例
+v-bind:name="message"</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name属性に変数messageの中身が設定される。</t>
+    <rPh sb="4" eb="6">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト構文について</t>
+    <rPh sb="6" eb="8">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-bind:class="{クラス名：変数}"</t>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス名の後に変数などを指定します。
+Javascriptでのオブジェクトの書き方そのままです。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>125Pの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真偽値によるCSSの使い分け</t>
+    <rPh sb="0" eb="2">
+      <t>シンギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V-bind:classを使用して表示の切り替え</t>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;p :class="{red:isRed, blue:isBlue}"&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trueのときとfalseのときで変わる
+{true:false}</t>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">data(){
+　　return{
+            message:null,
+            isRed:true,
+            isBlue:false
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このようにdataに定義してる</t>
+    <rPh sb="10" eb="12">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これを利用して関数を作成
+this.isBlue  = !this.isBlue
+this.isRed = !this.isRed</t>
+    <rPh sb="3" eb="5">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記は！を使って値の反転を再設定してる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サイセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>126P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-bind:classにオブジェクトを設定する</t>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタイルとオブジェクト構文</t>
+    <rPh sb="11" eb="13">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-bind:style="　オブジェクト構文"</t>
+    <rPh sb="21" eb="23">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">オブジェクト構文を利用して値の設定ができる。
+Style属性はスタイル名と値を必要なだけ記述していきます。
+</t>
+    <rPh sb="6" eb="8">
+      <t>コウブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{fontSize:'20pt', color:'red',
+border:'2px solid cyan'}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fontSize,color,borderというプロパティがありそれぞれに値のテキストが指定されてる。
+各プロパティ名のスタイルがstyle属性に設定される。
+※スタイル名がそのままプロパティ名になるわけではない。</t>
+    <rPh sb="37" eb="38">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-bind:styleにオブジェクトを指定する。</t>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-bind:styleの場合も、v-bind:classと同様に、オブジェクトw値に設定することができます。
+設定したオブジェクトの中に、スタイル情報をプロパティとして組み込んでおくことができれば、値の設定はもっと容易になります。</t>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;タグ v-if="条件"&gt; 表示内容
+&lt;/タグ&gt;</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-ifによる条件付きレンダリング</t>
+    <rPh sb="7" eb="10">
+      <t>ジョウケンツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートによる表示は用意された値をただ表示するだけでない。</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制御構文的な働きをするものも用意されている。
+プログラミング言語のif構文に相当するのがv-ifです。</t>
+    <rPh sb="0" eb="5">
+      <t>セイギョコウブンテキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コウブン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ソウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-elseもある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複雑が表示は&lt;templete&gt;タグ</t>
+    <rPh sb="0" eb="2">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vue3に用意されている特別なタグ
+テンプレートとしてHTMLタグを記述する際に用いられる
+&lt;templete&gt;タグは複数のタグを1つのテンプレートとしてまとめるのに用いられる。
+このタグ自身は表示されない
+出力されるのはタグ内部に書かれているタグのみで、タグ自体は表示の際に消える</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルとリストを切り替える</t>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;table&gt;タグに
+class="table"と用意するだけです。
+これでbootstrapでデザインされたテーブルに変わります。
+ここではほかに&lt;thead&gt;タグに
+class="thead-dark"というクラスを用意してる。
+ダークモードの表示にするものでヘッダー部分だけを黒にしてる</t>
+    <rPh sb="25" eb="27">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルとリストのクラスについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブートストラップの話</t>
+    <rPh sb="9" eb="10">
+      <t>ハナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルクラス設定
+bootstrap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tableタグにclass="table"と用意するだけでbootstrapのデザインされたテーブルに変化する</t>
+    <rPh sb="22" eb="24">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー部分だけ色を変えるとかもできる</t>
+    <rPh sb="4" eb="6">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストについても
+class="list-group"を用意してる</t>
+    <rPh sb="28" eb="30">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>liについては
+class="list-group-item"を指定してる。</t>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>139P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-forによるリストレンダリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;タグ　v-for="変数　in 配列"&gt;
+// 表示内容　// 
+&lt;/タグ&gt;</t>
+    <rPh sb="11" eb="13">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデックス番号の取得</t>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;タグ v-for="(変数 , インデックス) 
+in 配列"&gt;</t>
+    <rPh sb="12" eb="14">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハイレツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1677,10 +2307,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A33C83-1E6D-40F5-BEF1-25240D090438}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.58203125" defaultRowHeight="18"/>
@@ -1717,12 +2347,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="72">
+    <row r="5" spans="1:2" ht="54">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="126">
+    <row r="6" spans="1:2" ht="108">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1730,7 +2360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="72">
+    <row r="7" spans="1:2" ht="54">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1738,7 +2368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="108">
+    <row r="8" spans="1:2" ht="90">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1751,7 +2381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="72">
+    <row r="10" spans="1:2" ht="54">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1759,7 +2389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="180">
+    <row r="11" spans="1:2" ht="162">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1767,7 +2397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="144">
+    <row r="12" spans="1:2" ht="108">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1775,7 +2405,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="90">
+    <row r="13" spans="1:2" ht="72">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1799,7 +2429,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="144">
+    <row r="16" spans="1:2" ht="108">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1838,7 +2468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="72">
+    <row r="22" spans="1:2" ht="54">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -1854,7 +2484,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="72">
+    <row r="24" spans="1:2" ht="54">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1886,7 +2516,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="54">
+    <row r="28" spans="1:2" ht="36">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -1894,7 +2524,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="162">
+    <row r="29" spans="1:2" ht="144">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -1902,7 +2532,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="162">
+    <row r="30" spans="1:2" ht="126">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -1934,7 +2564,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="36">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -1990,6 +2620,223 @@
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="54">
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="36">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="36">
+      <c r="A45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="72">
+      <c r="A47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="36">
+      <c r="A49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="36">
+      <c r="A50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="108">
+      <c r="A51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="54">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="36">
+      <c r="B53" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="36">
+      <c r="A55" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="90">
+      <c r="A57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="126">
+      <c r="A58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="126">
+      <c r="A59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="36">
+      <c r="A60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="72">
+      <c r="A61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="198">
+      <c r="A63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="162">
+      <c r="A65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="54">
+      <c r="A68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="36">
+      <c r="A69" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="54">
+      <c r="A70" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="54">
+      <c r="A72" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="36">
+      <c r="A73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Vue.js学習.xlsx
+++ b/Vue.js学習.xlsx
@@ -8,16 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abbbb\SVN\LearningVue.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9340C045-88B1-43B7-8FC5-FDD8C2C5CAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DBAA89-6020-4F09-985C-24A7F53835A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1Vue3のセットアップ" sheetId="1" r:id="rId1"/>
     <sheet name="1-2より本格的なプロジェクト" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="P165 v-on" sheetId="4" r:id="rId4"/>
+    <sheet name="P167methods" sheetId="5" r:id="rId5"/>
+    <sheet name="172Pイベント処理とmethods、v-model" sheetId="6" r:id="rId6"/>
+    <sheet name="177P算術プロパティcomputed" sheetId="7" r:id="rId7"/>
+    <sheet name="177Pローカルコンポーネント" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="342">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -1905,12 +1910,4319 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>143ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトをv-forする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;タグ v-for="(値 , キー ) in オブジェクト" &gt;</t>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P154</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション.component(名前,
+{ 設定情報})</t>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書き方
+定義方法</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書き方
+呼び出し方</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;コンポーネント/＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createApp関数：新しいアプリケーションのインスタンスを作成できる。</t>
+    <rPh sb="9" eb="11">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vueアプリケーションをマウントしたいときは
+&lt;div id="app"&gt;&lt;/div&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#appを渡すこと
+Vue.createApp(/* options */).mount('#app')</t>
+    <rPh sb="5" eb="6">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>componentメソッドを使用したコンポーネントの定義</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>componentメソッドを使用してコンポーネントを定義することもできる。</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>componentメソッドを使用してコンポーネントを設定する場合は、先にVueインスタンスを変数を定義して格納する</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>let app = 
+Vue.createApp({})</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おそらく既定のメソッドとしてcomponetメソッドが用意されている？</t>
+    <rPh sb="4" eb="6">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app.mount（）
+マウントするのは最後</t>
+    <rPh sb="20" eb="22">
+      <t>サイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネントが登場すると必要になる考えは、記載するスクリプトの順番。
+App作成より後ろ、そしてapp.mountより前にある必要がある。
+最後にapp.mountで指定の場所にvue3のアプリケーションコンポーネントを組み込んで、初めてコンポーネントは使えるようになる。
+App.mountしたあとでコンポーネントを用意しても画面に表示されないです。
+用意されていないものをマウントできません</t>
+    <rPh sb="8" eb="10">
+      <t>トウジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P161</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプの指定が必要な時</t>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>propsの値を配列ではなく、オブジェクトにできる</t>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>props:{名前：タイプ, 名前：タイプ,｝</t>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>props:{ name:String}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String,Number,Boolean Array Object</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v属性を使いこなす</t>
+    <rPh sb="1" eb="3">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-bindで属性を設定する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネントの様々な機能</t>
+    <rPh sb="8" eb="10">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P167にいます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォームの入力要素（input）に入力された値を同期的に使用するために使う</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ドウキテキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input,select,textarea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使い方</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;template&gt;
+   &lt;input v-model="inputData" /&gt;
+   &lt;p&gt;inputdata:{{ inputdata }}&lt;/p&gt;
+&lt;/template&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;script&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0070C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>appdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ={</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'This is sample page.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>styles:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>margin:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'10px'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>padding:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'5px 20px'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fontSize:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'20pt'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>color:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'red'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>backgroundColor:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'#fee'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>border:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'3px solid blue'</t>
+    </r>
+  </si>
+  <si>
+    <t>                    }</t>
+  </si>
+  <si>
+    <t>                }</t>
+  </si>
+  <si>
+    <t>            }</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Vue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>createApp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0070C1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>appdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'#app'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/script&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>アプリケーションオブジェクト→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ内で直接｛｝オブジェクトで指定していたものを下のほうでアプリケーションオブジェクトとして設定することでそれをv-bindで設定できてる</t>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;body&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"bg-secondary text-white display-4 px-3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Vue3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/h1&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"app"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"container"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;hello/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'※コンポーネントを表示する'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'no-name'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// 先にapp = Vue.createApp({})をしておかないとcomponetメソッドは使用できない</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// アプリケーション・オブジェクトというもの</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'hello'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>counter:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>            },</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>template:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'&lt;p onclick="counter++" class="alert alert-info"&gt;clicked:{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>counter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}} &lt;/p&gt;'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>        })</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/body&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>現在のままだとonclick使用不可</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>シヨウフカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-onが必要</t>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-onでバインドすること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構文：v-on:イベント名 = "…処理…"</t>
+    <rPh sb="0" eb="2">
+      <t>コウブン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント名にはonを抜いたものを記述</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>template:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'&lt;p v-on:click="counter++" class="alert alert-info"&gt;clicked:{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>counter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}} &lt;/p&gt;'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>v-onを使用した書き方</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうすることでクリックするとcounterの中身が変化するようになる</t>
+    <rPh sb="22" eb="24">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>methods:{</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　名前(event) {……},</t>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　……必要なだけ用意……</t>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>methodsの構文→</t>
+    <rPh sb="8" eb="10">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>methods内にまとめた名前をv-onの値として指定すると、その名前に設定されたメソッドが実行される</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>counter:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isInfo :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isDark :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>methods:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>doAction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>counter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>++</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"counter"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>counter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> % </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isDark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"true"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isDark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"false"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>                },</t>
+  </si>
+  <si>
+    <t>クリックイベントでclassの中身を変化</t>
+    <rPh sb="15" eb="17">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>させていた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this.がないとエラーになります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>template:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'&lt;p v-on:click="doAction" v-bind:class="{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>alert-warning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:isInfo , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>alert-dark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:isDark}" class="alert"&gt;clicked:{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>counter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}} &lt;/p&gt;'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">＼'alert-warning＼'このような書き方はclassには｛｝オブジェクトとして値を指定しているがオブジェクトのキー名にハイフンを含む名前をそのまま指定することはできない。
+</t>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため｛'alert-warning':true}とする必要がある</t>
+    <rPh sb="29" eb="31">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-on:clickの値はテンプレート内に書かれており、テンプレートはそれ自体がテキストである。
+シングルクォートでくくられたテキストの中でシングルクォート記号を書くためには＼記号をつけて＼'と書かないといけない</t>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのためそのような記述になっている</t>
+    <rPh sb="9" eb="11">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onInput属性を使用し、リアルタイムに入力された値と処理するサンプル</t>
+    <rPh sb="7" eb="9">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントの割り当てを行うことでユーザーの操作に応じて様々な処理を行えるようになります。</t>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネントに用意した変数を使用して、onInputで処理ができるか確認</t>
+    <rPh sb="8" eb="10">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>methodsに実行するメソッドを用意し、それをv-onでバインドすればいい。
+その場合、&lt;input&gt;タグ自身もコンポーネントの一部として用意する必要がある。</t>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>num:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'type a number.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>calc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>total</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>++){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>total</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> += </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"total: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>total</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>template:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+  </si>
+  <si>
+    <t>            &lt;div&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;p class="alert alert-info h4"&gt;{{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> }}&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>                &lt;div&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;input class="form-control" type="number" v-on:input="calc" v-model="num"&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>            `</t>
+  </si>
+  <si>
+    <t>oninput属性とは
+ユーザーが何かを書き込むときにjavascriptを実行する</t>
+    <rPh sb="7" eb="9">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーがinputに何か数字を書き込みを</t>
+    <rPh sb="11" eb="12">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したときにjavascriptが発動</t>
+    <rPh sb="16" eb="18">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>methodsに宣言済みのcalcメソッドが呼ば</t>
+    <rPh sb="8" eb="11">
+      <t>センゲンズ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※type=numberで数字のみに制限</t>
+    <rPh sb="13" eb="15">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-model：フォームの入力要素に入力され</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>た値を同期的に使用するために使う</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ドウキテキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>numに入力された数値が入ってる</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>templateに複数のタグからなる表示を用意する場合、注意するのはベースになるのは常に一つのタグだけということ</t>
+    <rPh sb="9" eb="11">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のタグが並んだ状態でテンプレートを作ってはいけない</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうしてものときは&lt;template&gt;で囲ってしまうことｖ</t>
+    <rPh sb="20" eb="21">
+      <t>カコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>算術プロパティについて</t>
+    <rPh sb="0" eb="2">
+      <t>サンジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントを使ってリアルタイムに処理を実行するというもの</t>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントとして組み込むことで動作するようにしている。</t>
+    <rPh sb="7" eb="8">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティ側に着目し、処理を実行できるプロパティとして作成することもできる。</t>
+    <rPh sb="5" eb="6">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チャクモク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらかじめ用意した処理を実行して設定する</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>computed:{</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　名前( 引数 ){……処理……},</t>
+    <rPh sb="2" eb="4">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　……必要なだけ用意……</t>
+    <rPh sb="4" eb="6">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構文→</t>
+    <rPh sb="0" eb="2">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>computed:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// 算術プロパティ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>calc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>++){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"total: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>total</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;p class="alert alert-info h4"&gt;{{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>calc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> }}&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>                    &lt;input class="form-control" type="number" v-model="num"&gt;</t>
+  </si>
+  <si>
+    <t>v-on:inputが消えている</t>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値変更時のイベント処理はない</t>
+    <rPh sb="0" eb="4">
+      <t>アタイヘンコウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→算術プロパティで処理している。</t>
+    <rPh sb="1" eb="3">
+      <t>サンジュツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここで計算を行い最後に値をreturnしてる</t>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-modelで値を同期的に取得</t>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ドウキテキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントとの違い</t>
+    <rPh sb="6" eb="7">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・呼び出されるタイミングの違い</t>
+    <rPh sb="1" eb="2">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・イベント利用はユーザーが操作するなど</t>
+    <rPh sb="5" eb="7">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>してイベントが発生すると呼び出される</t>
+    <rPh sb="7" eb="9">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・算術プロパティは依存する値が更新さ</t>
+    <rPh sb="1" eb="3">
+      <t>サンジュツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れるときに呼び出される。</t>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※依存する値は関数内の値のこと</t>
+    <rPh sb="1" eb="3">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カンスウナイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントは状況の変化に関係なく、イベ</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ントが発生するれば処理が実行</t>
+    <rPh sb="3" eb="5">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→イベントが発生してないと値が更新されても処理の実行なし</t>
+    <rPh sb="6" eb="8">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・算術プロパティは値が変更されたときのみ呼び出される。</t>
+    <rPh sb="1" eb="3">
+      <t>サンジュツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要にして最小限の動作になっていると考えて問題ない。
+その意味であれば算術プロパティを使用するほうが余計な処理を呼び出す必要がなく、必要以上に負荷がかかる必要がない</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>サイショウゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サンジュツ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヨケイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="66" eb="70">
+      <t>ヒツヨウイジョウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これまでcomponentを使って定義をしてきた</t>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これらはグローバルコンポーネントと呼ばれる。
+グローバル変数として配置され、スクリプトのどこでも利用できるようになっている。</t>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つのファイルで作っているが、プロジェクトを使って多数のファイルを李王するようになったとき、グローバル変数としてコンポーネントが配置されていると、常にすべてロードされることになり不便である。</t>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タスウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>リオウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>フベン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションオブジェクト内に組み込まれたコンポーネントはローカルコンポーネントト言われる。</t>
+    <rPh sb="14" eb="15">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これはVueオブジェクトのcomponentsというプロパティに用意される</t>
+    <rPh sb="32" eb="34">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>components:{</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　名前：{……設定情報},</t>
+    <rPh sb="2" eb="4">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　…必要な数だけ用意…</t>
+    <rPh sb="3" eb="5">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルコンポーネントのときはvue.componentメソッドは呼び出ししない</t>
+    <rPh sb="33" eb="34">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;div&gt;&lt;hello /&gt;&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>components:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>hello:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>counter:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>                        }</t>
+  </si>
+  <si>
+    <t>                    },</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>template:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`&lt;p v-on:click="counter++"</t>
+    </r>
+  </si>
+  <si>
+    <t>                    class="alert alert-info h5"&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    clicked: {{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>counter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> }}.&lt;/p&gt;`</t>
+    </r>
+  </si>
+  <si>
+    <t>3連になってるけど、前のコードを同じ</t>
+    <rPh sb="1" eb="2">
+      <t>レン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ように記述しても同一動作である</t>
+    <rPh sb="3" eb="5">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vueオブジェクトの中にコンポーネント</t>
+    <rPh sb="10" eb="11">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>が組み込まれている</t>
+    <rPh sb="1" eb="2">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>helloコンポーネントができた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用は&lt;hello /&gt;と書くだけ</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルコンポーネントはVue内に</t>
+    <rPh sb="15" eb="16">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティとして利用するため全体とし</t>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てまとまった感じがある。</t>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これをVueから切り離して、単独でほか</t>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タンドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のファイルに移して使用するのは面倒</t>
+    <rPh sb="6" eb="7">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>メンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あちこちのファイルに配置して利用するときはグローバルに置いたほうがいい</t>
+    <rPh sb="10" eb="12">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1925,13 +6237,104 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF800000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF0070C1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF795E26"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFAF00DB"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF001080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFE50000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF098658"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFEE0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1946,10 +6349,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2307,10 +6743,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A33C83-1E6D-40F5-BEF1-25240D090438}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView topLeftCell="A102" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.58203125" defaultRowHeight="18"/>
@@ -2839,6 +7275,159 @@
         <v>134</v>
       </c>
     </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="36">
+      <c r="A76" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="36">
+      <c r="A79" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="36">
+      <c r="A80" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="54">
+      <c r="A81" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="54">
+      <c r="A82" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="54">
+      <c r="A83" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="72">
+      <c r="A84" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="54">
+      <c r="A85" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="270">
+      <c r="A86" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="36">
+      <c r="A89" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="36">
+      <c r="A90" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="54">
+      <c r="A95" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="90">
+      <c r="A97" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2848,13 +7437,1565 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13073446-1752-4B17-929C-C3837A14504C}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="34.5" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="34.5" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A4"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802B1904-AC1F-4C0F-A459-B2DB023829ED}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="36.4140625" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="6" customFormat="1" ht="36">
+      <c r="A29" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75AD226-FFBC-4DEA-A7C8-D57CA8592450}">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="34.75" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1">
+      <c r="B2" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="54">
+      <c r="A6" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>240</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="108">
+      <c r="A50" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="6" customFormat="1" ht="36">
+      <c r="A51" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="126">
+      <c r="A52" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD325B50-5527-4C25-8139-6730B53002B4}">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="35.58203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="35.58203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36">
+      <c r="A1" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="54">
+      <c r="A2" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="36">
+      <c r="A3" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72">
+      <c r="A4" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="54">
+      <c r="A5" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="54">
+      <c r="A52" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="36">
+      <c r="A53" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="36">
+      <c r="A54" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3968AB9-9073-4DC7-B5D0-3D9077D1563B}">
+  <dimension ref="A1:B61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="35.1640625" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="35.1640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="36">
+      <c r="A2" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="36">
+      <c r="A3" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="54">
+      <c r="A4" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="36">
+      <c r="A5" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="36">
+      <c r="A52" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="36">
+      <c r="A59" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="36">
+      <c r="A60" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="108">
+      <c r="A61" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA048363-6F16-474F-9727-42A0BA2B173F}">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="34.4140625" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="34.4140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36">
+      <c r="A1" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="90">
+      <c r="A2" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="108">
+      <c r="A3" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="54">
+      <c r="A4" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="36">
+      <c r="A5" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="54">
+      <c r="A11" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="36">
+      <c r="A38" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Vue.js学習.xlsx
+++ b/Vue.js学習.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abbbb\SVN\LearningVue.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DBAA89-6020-4F09-985C-24A7F53835A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F194E9-2C69-437A-AACE-22D5861C2918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="10410" windowHeight="10905" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1Vue3のセットアップ" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,10 @@
     <sheet name="172Pイベント処理とmethods、v-model" sheetId="6" r:id="rId6"/>
     <sheet name="177P算術プロパティcomputed" sheetId="7" r:id="rId7"/>
     <sheet name="177Pローカルコンポーネント" sheetId="8" r:id="rId8"/>
+    <sheet name="P181プロジェクト開発" sheetId="10" r:id="rId9"/>
+    <sheet name="P187プロジェクト開発-index.htmlから先" sheetId="11" r:id="rId10"/>
+    <sheet name="P190-P199" sheetId="12" r:id="rId11"/>
+    <sheet name="P199-" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="567">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -6217,12 +6221,4218 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ここからはvite_appを使用して開発していく</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>webページのファイル
+このファイルにアクセスしてページを表示する</t>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>packege.json</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトの設定情報</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>packege-lock.json</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトの設定に関するファイル</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル説明</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダ説明</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publicフォルダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部に公開させるファイルをまとめるところ</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favicon.ico</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>srcフォルダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションのプログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app.vue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションで使うコンポーネントファイル</t>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「assets」フォルダ
+→logo.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴのイメージファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「components」フォルダ
+→HelloWorld.vue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネントファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「node_modules」フォルダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトで使うパッケージ類がまとめられている</t>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「dist」フォルダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルドして生成された公開ファイルが保存されている。</t>
+    <rPh sb="5" eb="7">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトとWEBサイトの違い</t>
+    <rPh sb="14" eb="15">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vue CLIでプロジェクトを作成して開発するときにWEBアプリケーションの構造そのものが違う</t>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般的WEBサイト</t>
+    <rPh sb="0" eb="3">
+      <t>イッパンテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダの中にHTMLファイルやイメージファイルなど必要なものをまとめて、それをWEBサーバーにアップロードする</t>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLファイルはただサーバに置くだけであとは勝手にサーバのほうでこのアドレスにアクセスしたら、このファイルをロードして表示するという作業をしてくれる。</t>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発者はWEBページであるHTMLファイルを書いてアップするということを考えればいい</t>
+    <rPh sb="0" eb="3">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vue CLIやViteで作成のプロジェクト</t>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトの動作確認を行ったとき、「npm run serve」あるいは「npm run dev」といったコマンドを実行してプロジェクトを実行していました。</t>
+    <rPh sb="7" eb="11">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトに用意されているスクリプトを実行してプロジェクトそのものがＷｅｂサーバーとして実行されるようになっている</t>
+    <rPh sb="7" eb="9">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトの中には「プロジェクトをWeｂサーバーとして実行するためのプロクラム」などまでが含まれている。</t>
+    <rPh sb="7" eb="8">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般的にはビルドが必要になる</t>
+    <rPh sb="0" eb="3">
+      <t>イッパンテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般的サーバー公開しようとする場合はビルドという作業が必要になる。
+ビルドすることで実際に公開するファイル類が生成されます。</t>
+    <rPh sb="0" eb="3">
+      <t>イッパンテキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これらはHTMLファイルを中心としたファイル構成となり、私たちが一般的に思う「WEBアプリケーションの構成」に近いものになる</t>
+    <rPh sb="13" eb="15">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>イッパンテキ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1章のビルド</t>
+    <rPh sb="1" eb="2">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「dist」フォルダ内に公開されるファイル類が書き出されることがわかりました。</t>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このフォルダな人はindex.htmlといくつかのリソースファイルが作られており、普通のWEBページと同じような構成になっていることが確認できる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルド後の生成ファイルはスクリプトが変換され、中身を見てもわからない状況にあります。
+そのため、プログラムの作成はビルド前に行う必要がある。ビルド後のファイルを直接編集することはない</t>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発について</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vue3はビルドする前のプロジェクトの状態を前提に作業する必要がある。
+ビルド後のファイルを再編集するのはほぼ不可能。</t>
+    <rPh sb="10" eb="11">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>サイヘンシュウ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>フカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main.jsの役割</t>
+    <rPh sb="8" eb="10">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・importについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュールからオブジェクトなどを読み込んで使えるようにするためのもの。</t>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createApp(App).mount('#app')
+アプリケーションオブジェクトを生成し、id="app"にマウントしている。</t>
+    <rPh sb="44" eb="46">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createaAppの引数に渡されてるのは、App.vueからロードしたAppというオブジェクトです。
+Appを引数にしてアプリケーション・オブジェクトを作っていた</t>
+    <rPh sb="11" eb="13">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>App.vueを確認する</t>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>App.vueのように拡張子に「.vue」が使われる。
+Vue3のコンポーネントを定義しているファイルである。</t>
+    <rPh sb="11" eb="14">
+      <t>カクチョウシ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;template&gt;と&lt;script&gt;タグの2つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;template&gt;タグについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネントのテンプレート内容です。</t>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;img&gt;タグと&lt;HelloWorld&gt;タグがテンプレート内にまとめられている</t>
+    <rPh sb="29" eb="30">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;HelloWorld&gt;タグはHelloWorldというコンポーネントを表示するタグ。</t>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>App.vueではさらにそのなかからHelloWorld.vueというファイルを読み込んで利用するようになっている</t>
+    <rPh sb="40" eb="41">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>export default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリプトファイルをimportでインポートしたときにデフォルトで用意されるものを指定するものです。
+現状のApp.vueをほかのファイルが読み込んだ時にすでに生成されてるものを指定する</t>
+    <rPh sb="33" eb="35">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例
+import 変数 from 'App.vue'</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記のようにインポートすると、
+export defaultの{}部分に記述された内容が変数に取り出される。
+このようにして.vueファイルの内容を外部から利用できるようにしている。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;script&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>HelloWorld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'./components/HelloWorld.vue'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'App'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>components:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>HelloWorld</t>
+    </r>
+  </si>
+  <si>
+    <t>  }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>コンポーネントの名前を指す</t>
+    <rPh sb="8" eb="10">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用するコンポーネントをまとめたもの</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これがあるから&lt;HelloWorld/&gt;のタグの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部分にHelloWorld.vueのコンポーネント</t>
+    <rPh sb="0" eb="2">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を組み込めるようになる</t>
+    <rPh sb="1" eb="2">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vue3のコンポーネントは設定情報をまとめたオブジェクトを引数にしてcreatAppします</t>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネントの設定内容などをまとめてexport　defaultすればうまく動くといいう認識ぐらいは持つべき</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>componetから.vueへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLファイルに実装する方式と、プロジェクト方式との最も大きな違いはこの「.vue」ファイルにある</t>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それまでコンポーネントはcomponentを使って作成していた。
+プロジェクトになると使われなくなり、.vueファイルとしてコンポーネントを定義するようになった。</t>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どちらでもできる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.vueファイルでは表示するタグトコンポーネントの実装部分（export default)をそれぞれ分けて記述している</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力される内容をHTMLでかけるのは非常に大きい。</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HelloWorld.vueを見る→</t>
+    <rPh sb="15" eb="16">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>componentでは、templateの値として、出力内容を用意する必要があった。
+テキストの値として出力内容を作成するのはわかりにくい</t>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="52" eb="56">
+      <t>シュツリョクナイヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.vueファイルを使った方式は、複雑な表示内容のコンポーネントを作成するのに適している。</t>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>javascriptの処理は書かれていない</t>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグらしきものもない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;!DOCTYPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"en"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;head&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;meta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>charset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"UTF-8"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"icon"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/favicon.ico"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;meta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"viewport"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"width=device-width, initial-scale=1.0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;title&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Vite App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/title&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;/head&gt;</t>
+  </si>
+  <si>
+    <t>&lt;body&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"app"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"module"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>src</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/src/main.js"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/script&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;/body&gt;</t>
+  </si>
+  <si>
+    <t>最後にscriptタグが1つある</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>div id = "app"のタグがある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際にこれで機能している</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>npm run devで起動できる</t>
+    <rPh sb="12" eb="14">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．表示されるWEBページはindex.htmlとして用意されている。
+Javascript関係のタグでmain.jsを読み込みこれでVue3の処理が実行されている。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．Main.jsでは、Vue3のアプリケーション・オブジェクトが作成される。ここでApp.vueのAppコンポーネントが組み込まれる</t>
+    <rPh sb="33" eb="35">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３．Appコンポーネント（App.vue）では、その内部でさらにHelloWorldコンポーネントを組み込んでる</t>
+    <rPh sb="26" eb="28">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEBページにAppというコンポーネントを組み込み、その中でさらにHelloWorldコンポーネントを読み込んで表示している</t>
+    <rPh sb="21" eb="22">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HelloWorldコンポーネントを修正する</t>
+    <rPh sb="18" eb="20">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>props：プロパティを設定しておくためのもの</t>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これでHelloWorldのタグを用意するときに、titoleとmessageという属性を用意できるようになった</t>
+    <rPh sb="17" eb="19">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティ：設定情報みたいなもの？</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>App.vueを修正するｖ</t>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HelloWorld.vue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここで{{}}の中にpropsで用意した属性名をセットする</t>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HelloWorldのタグを作成し、その中の属性に文字をセットする。
+そうするとHelloWorldの中の{{}}の部分に文字がせっとされる</t>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-onによるイベントの利用</t>
+    <rPh sb="12" eb="14">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;template&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"alert alert-info"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;h2&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/h2&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;hr&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"form-control"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"text"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>v-model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"btn btn-info mt-2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>v-on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>click</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>doAction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Click</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;/template&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'HelloWorld'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>props:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>  },</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'お名前は？'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'no name'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>methods:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>doAction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'こんにちは、'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'さん！'</t>
+    </r>
+  </si>
+  <si>
+    <t>v-on:clickのイベントを作成する</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリプトによって表示を処理するような</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場合はdataの値を使ったりv-onでイベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を利用した処理を実行することになりす。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inputで入力をさせる</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力された値がここに入る</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inputがmessageに入る</t>
+    <rPh sb="14" eb="15">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>propsではない理由は、propsでは属性の値</t>
+    <rPh sb="9" eb="11">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を指定するものであったため。</t>
+    <rPh sb="1" eb="3">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data()の値はthis.から直接できるようになっている</t>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョクセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーは起動しっぱなしで開発</t>
+    <rPh sb="5" eb="7">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトファイルを編集するときは常にサーバーを起動し続ける</t>
+    <rPh sb="11" eb="13">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vue3利用の開発では、npm run devでプロジェクトを実行すると、ファイルを書き換えると同時に即時反映さえるようになる。
+リアルタイムの修正内容を確認できる</t>
+    <rPh sb="4" eb="6">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ソクジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアルタイムの反映はVue CLIより、Viteのほうがずっと早くなっている。そのためVue3の開発では、Viteを使うのがベータである。</t>
+    <rPh sb="7" eb="9">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AppからHelloWorldに値を渡す。</t>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のコンポーネントが入れ子状態で使われるようになると、コンポーネント間での値のやり取りについてもかんがえる必要が出てくる。</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親コンポーネントから子コンポーネントへ値を渡す場合</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AppコンポーネントからHelloWorldコンポーネントに値を渡すという方法です。</t>
+    <rPh sb="30" eb="31">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既に行える</t>
+    <rPh sb="0" eb="1">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Appでは、HelloWorldのたぐをテンプレートに記述して利用している。</t>
+    <rPh sb="27" eb="29">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここに属性を用意し、その属性にv-bindで値をバインドしてやる</t>
+    <rPh sb="3" eb="5">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親コンポーネント側で値を操作すると、v-bindでバインドされたココンポーネント側の属性が更新されて、それに伴い、ココンポーネントの表示も更新される</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"app"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>HelloWorld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>v-bind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"btn btn-primary"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>v-on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>click</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>doAction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>change title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'HELLO'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prompt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"new title:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+  </si>
+  <si>
+    <t>buttonを作成</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押したらメソッドを実行</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prompt：javascriptの標準関数</t>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ユーザーの入力を受け付けるための</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイアログを表示するために使う</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一引数に表示する文章</t>
+    <rPh sb="0" eb="2">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二引数に初期値を入力する</t>
+    <rPh sb="0" eb="2">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押す</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doActionが実行</t>
+    <rPh sb="9" eb="11">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>promptが実行→文字入力</t>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>モジニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されたものがinputに入って</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this.messageにinputが入る</t>
+    <rPh sb="19" eb="20">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;HelloWorld&gt;タグのv-bind:titleの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>messageになる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HelloWorld.vueの{{title}}に表示される</t>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→titleはpropsの中でString型で宣言されている。</t>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆今回の流れ</t>
+    <rPh sb="1" eb="3">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子コンポーネントから親コンポーネントへ</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子コンポーネント構文</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this.$emit(イベント,引数の値・・・・・)</t>
+    <rPh sb="16" eb="18">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子コンポーネントのタグ</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;コンポーネント　v-on:イベント＝メソッド/&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$emit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'result-event'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>HelloWorld.vueの修正後</t>
+    <rPh sb="15" eb="17">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doAction()の中で、this.$emitを実行</t>
+    <rPh sb="11" eb="12">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result-eventというイベントを呼び出し</t>
+    <rPh sb="20" eb="21">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this.inputの値を引数として渡している</t>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>App.vueの修正後</t>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$emit:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子コンポーネントでボタンが押されたり、テキストボックスの変更などが発生したときに、親コンポーネントに伝えることができる</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this.$emit(イベント名,データ);</t>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$emit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'result-event'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// result-eventという属性をここで作ってる？</t>
+    </r>
+  </si>
+  <si>
+    <t>親、子全体の流れ</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに文字を入力して</t>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンをクリックする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子コンポーネントのほうで、v-on:click</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＝"doAction"が実行</t>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doAction1の中で</t>
+    <rPh sb="10" eb="11">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力された値が入ったinputがthis.message</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の中に入る</t>
+    <rPh sb="1" eb="2">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this.$emitが実行</t>
+    <rPh sb="11" eb="13">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→result-eventという属性ができる</t>
+    <rPh sb="16" eb="18">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二引数でinputの中身が渡される</t>
+    <rPh sb="0" eb="2">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>App.vueのほうで&lt;HelloWorldの中で</t>
+    <rPh sb="23" eb="24">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-on:result-event="appAction"が実行される</t>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appAction(message)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→これの中でthis.resultにmessageが</t>
+    <rPh sb="4" eb="5">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代入される</t>
+    <rPh sb="0" eb="2">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それによりApp.vueの{{result}}が変更され</t>
+    <rPh sb="24" eb="26">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>る。その後v-bind:title="message"によって</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HelloWorld.vueのほうにmessageが代入</t>
+    <rPh sb="26" eb="28">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>されたtitleが送られる</t>
+    <rPh sb="9" eb="10">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それによりtitle表示が変わる</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6322,6 +10532,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF267F99"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6349,7 +10565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6386,6 +10602,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6740,6 +10965,1049 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B720D344-0C0C-4599-8EC3-7FB0A5621BD8}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="36.33203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="36.33203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="72">
+      <c r="A16" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="72">
+      <c r="A17" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="54">
+      <c r="A18" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="54">
+      <c r="A19" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FD9579-66F7-4AD5-915F-1E3C82A622BD}">
+  <dimension ref="A1:B90"/>
+  <sheetViews>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="37.33203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="37.33203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36">
+      <c r="A1" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="54">
+      <c r="B2" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="36">
+      <c r="A6" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="72">
+      <c r="A7" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="36">
+      <c r="A37" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="36">
+      <c r="A42" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="72">
+      <c r="A43" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="72">
+      <c r="A46" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="36">
+      <c r="A47" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="36">
+      <c r="B49" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="36">
+      <c r="B50" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="72">
+      <c r="B51" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="B61" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="B66" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="B67" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="36">
+      <c r="A90" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2B0AF6-32D3-4CAF-B4C9-9E652612B454}">
+  <dimension ref="A1:B62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="37.58203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="37.58203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="36">
+      <c r="A3" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="54">
+      <c r="A5" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="B61" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A33C83-1E6D-40F5-BEF1-25240D090438}">
   <sheetPr codeName="Sheet2"/>
@@ -7449,7 +12717,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -7457,19 +12725,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="7" t="s">
         <v>173</v>
       </c>
@@ -8721,8 +13989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA048363-6F16-474F-9727-42A0BA2B173F}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.4140625" defaultRowHeight="18"/>
@@ -8998,4 +14266,403 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C625A6D-4149-408C-BDF1-24FE93419636}">
+  <dimension ref="A1:B61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="35.5" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36">
+      <c r="A1" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="54">
+      <c r="A3" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="36">
+      <c r="A7" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="36">
+      <c r="A12" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="36">
+      <c r="A13" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="36">
+      <c r="A14" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="36">
+      <c r="A15" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="36">
+      <c r="A16" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="54">
+      <c r="A17" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="54">
+      <c r="A18" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="72">
+      <c r="B19" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="54">
+      <c r="B20" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="72">
+      <c r="A21" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="72">
+      <c r="B22" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="54">
+      <c r="B23" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="72">
+      <c r="A24" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="72">
+      <c r="B25" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="36">
+      <c r="A26" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="72">
+      <c r="B27" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="108">
+      <c r="B28" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="72">
+      <c r="A29" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="36">
+      <c r="A31" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="54">
+      <c r="B32" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="90">
+      <c r="B33" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="72">
+      <c r="A34" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="36">
+      <c r="B37" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="36">
+      <c r="B38" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="54">
+      <c r="B39" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="108">
+      <c r="A40" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="36">
+      <c r="B41" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="90">
+      <c r="B42" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="54">
+      <c r="A52" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="54">
+      <c r="A53" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="54">
+      <c r="A55" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="90">
+      <c r="B56" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="54">
+      <c r="B58" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="36">
+      <c r="A59" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="72">
+      <c r="B60" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="54">
+      <c r="B61" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Vue.js学習.xlsx
+++ b/Vue.js学習.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abbbb\SVN\LearningVue.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F194E9-2C69-437A-AACE-22D5861C2918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DF9CB8-3480-4452-BCE2-42C01C30E66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="10410" windowHeight="10905" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1Vue3のセットアップ" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,10 @@
     <sheet name="P181プロジェクト開発" sheetId="10" r:id="rId9"/>
     <sheet name="P187プロジェクト開発-index.htmlから先" sheetId="11" r:id="rId10"/>
     <sheet name="P190-P199" sheetId="12" r:id="rId11"/>
-    <sheet name="P199-" sheetId="13" r:id="rId12"/>
+    <sheet name="P199-P204まで" sheetId="13" r:id="rId12"/>
+    <sheet name="P204-P205" sheetId="14" r:id="rId13"/>
+    <sheet name="P205テンプレート参照" sheetId="15" r:id="rId14"/>
+    <sheet name="P209-計算アプリ作成-calcコンポーネント" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="715">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -9928,16 +9931,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>子コンポーネントから親コンポーネントへ</t>
-    <rPh sb="0" eb="1">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>子コンポーネント構文</t>
     <rPh sb="0" eb="1">
       <t>コ</t>
@@ -10121,28 +10114,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>子コンポーネントでボタンが押されたり、テキストボックスの変更などが発生したときに、親コンポーネントに伝えることができる</t>
-    <rPh sb="0" eb="1">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ツタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>this.$emit(イベント名,データ);</t>
     <rPh sb="15" eb="16">
       <t>メイ</t>
@@ -10424,6 +10395,6659 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレート参照ついて</t>
+    <rPh sb="6" eb="8">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直接HTML要素を操作したくなる</t>
+    <rPh sb="0" eb="2">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これまでは、テンプレートの要素は{{}}などを使って表示を変更したり、v属性で属性などを設定してきた</t>
+    <rPh sb="13" eb="15">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的には「テンプレートに用意されている特別な値を使ってテンプレートの一部を操作する」という形であった。</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし、HTML要素を新たに付け加えたりするようなときは、直接HTML要素を操作したほうがはるかに簡単だったりします。</t>
+    <rPh sb="8" eb="10">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうしたときに役立つのがテンプレート参照というものです。</t>
+    <rPh sb="7" eb="9">
+      <t>ヤクダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ref="名前"</t>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このようにref属性を付けて記述されたテンプレートのHTML要素は、「this.$ref.名前」という形で、そのHTML要素のオブジェクト（javascriptのElementと呼ばれるオブジェクト）に直接アクセスすることができる用にある</t>
+    <rPh sb="8" eb="10">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレート参照の必要性</t>
+    <rPh sb="6" eb="8">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒツヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>document.querySelectorや
+document.getElementByIdとかを使えばと考える人もいるが、現在の編集しているコードはビルド前のものである。</t>
+    <rPh sb="50" eb="51">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vueのプロジェクトは記述したものがそのまま使用されない</t>
+    <rPh sb="11" eb="13">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルドして生成されたファイルが使われている。</t>
+    <rPh sb="5" eb="7">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この段階ではもとのソースコードと似ても似つかない内容に書き換わっている</t>
+    <rPh sb="2" eb="4">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>className</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"alert alert-primary"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"msg"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"btn btn-primary"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>v-on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>click</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DoAction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Click</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'HelloWorld'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'This is sample massage.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mounted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>counter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DoAction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>counter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>++</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$refs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>msg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>innerHTML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'&lt;h6&gt;counted:'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>counter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'&lt;/h6&gt;'</t>
+    </r>
+  </si>
+  <si>
+    <t>テンプレート参照使用部位</t>
+    <rPh sb="6" eb="8">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→&lt;p&gt;タグはmsgという名前で参照</t>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>されるようになる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>innerHTML:javascriptの標準プロパティ？</t>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→document.querySelector('');</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→これと同じ？参照ができる</t>
+    <rPh sb="4" eb="5">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→中身がdivならh1とかpとかを参照してくる</t>
+    <rPh sb="1" eb="3">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;タグ&gt;&lt;/タグ&gt;タグの中身を参照してくる</t>
+    <rPh sb="12" eb="14">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加していく動作になる</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※テンプレート参照は諸刃の剣</t>
+    <rPh sb="7" eb="9">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モロハ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツルギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→vueで用意している要素まで消してしまう可能性があるため、使用する際は必要最小限、例外的に使用するなどのように制限をするべきである。</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="36" eb="41">
+      <t>ヒツヨウサイショウゲン</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>レイガイテキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>    },</t>
+  </si>
+  <si>
+    <t>calc.vueの内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>式入力欄</t>
+    <rPh sb="0" eb="1">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→v-model="fomulaという変数に値が同期</t>
+    <rPh sb="19" eb="21">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ドウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>されるようにしてる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v-on:click="doAction"としてクリックをし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たらdoActionが実行されるようにしている</t>
+    <rPh sb="11" eb="13">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>titleは後で操作することがないため、属性</t>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>として設定している。</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちらは常に変更されるもののため、data</t>
+    <rPh sb="4" eb="5">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に入れている</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fomulaのテキストを改行コードで分割し</t>
+    <rPh sb="12" eb="14">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列にする、pop()で配列の最後を取得</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列の中身を繰り返し処理する</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り出した項目のテキストが空でないなら</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>let テキストというテキストを作って変数に</t>
+    <rPh sb="16" eb="17">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入れる、trimは空白除去の標準プロパティ</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョキョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰返し終了後return 最後の項目とテキスト</t>
+    <rPh sb="0" eb="2">
+      <t>クリカエ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シュウリョウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eval：書いている文字列を実行する</t>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行結果をメッセージにまとめて設定</t>
+    <rPh sb="0" eb="4">
+      <t>ジッコウケッカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列をセミコロンでつなげてテキストにする</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列が空でなければセミコロンをつけ、</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後の項目を付け加える</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成したテキストを引数に指定し</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$emitでresult-eventイベントを呼び出す</t>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストをスクリプトとして実行するには「eval」という関数を使用する</t>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単純な式なら引く数にテキストを指定して、evalを呼び出せば結果を得られる。</t>
+    <rPh sb="0" eb="2">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力テキストは関数として実+56:78行可能</t>
+  </si>
+  <si>
+    <t>複数行にわたる計算の場合はjavascriptとして正しく実行できるようにする必要がある</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書いた式全体を関数にまとめ、その関数を実行するようにしておく。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストの最初にfunction〇〇（）{とつけ最後に}とつければ関数の形になる。</t>
+    <rPh sb="5" eb="7">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書かれたテキストは変数に代入する文の場合、let 〇〇 = xx;という形にする</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後の計算式はretun 〇〇という形にすると、javascriptとして実行できるスクリプトになる</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加。関数にまとめて実行するスクリプト
+最後にもう一度f()をつけてるのは呼び出し？</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>      }</t>
+  </si>
+  <si>
+    <t>app.vueの内容</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"card alert-primary"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"card-body text-left"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;h2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"card-title text-center"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/h2&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"card-text h5"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;hr&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"form-group"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;label&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Formula:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/label&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;textarea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"form-control mb-2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>v-model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fomula</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/textarea&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"text-center"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"btn btn-primary"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>v-on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>click</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>doAction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CALC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Calc'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>props</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Enter expression:'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fomula:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'0'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>doAction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>arr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fomula</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>trim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>last</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>arr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>arr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>arr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>trim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'let '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>arr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>';'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'return'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>last</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>';'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'function f(){'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'} f();'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>eval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>massage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'answer: '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ans</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>arr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>';'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>trim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>';'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>last</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$emit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'result-event'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"app"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Calc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>v-bind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>v-on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>result-event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>appAction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"mt-3 text-left"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"table"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>v-html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/table&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"btn btn-danger"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>v-on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE50000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>click</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>doClear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Clear Log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Calc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'./components/Calc.vue'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> { </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'app'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// ここで呼び出したものが使えるようになる</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>components:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF267F99"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Calc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>message:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'CALC'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>result:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>computed:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'&lt;tr&gt;&lt;th&gt;Expression&lt;/th&gt;&lt;th&gt;Value&lt;/th&gt;&lt;/tr&gt;'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'&lt;tr&gt;&lt;td&gt;'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'&lt;/td&gt;&lt;th&gt;'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'&lt;/th&gt;&lt;/tr&gt;'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>created</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>localStorage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'log'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>logs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>parse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>logs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">){ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>logs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>methods:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>appAction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>unshift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stringify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>localStorage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>setItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'log'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>doClear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>confirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'ログをすべて消去します。'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>localStorage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>removeItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'log'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> []</t>
+    </r>
+  </si>
+  <si>
+    <t>result-eventが発生するとappAction</t>
+    <rPh sb="13" eb="15">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッドを呼び出すようにしてる</t>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子コンポーネントから親コンポーネントへ値渡し</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>アタイワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子コンポーネントでボタンが押されたり、テキストボックスの変更などが発生したときに、親コンポーネントに伝えることができる。
+このコンポーネントが配置されているタグにイベントを送ることができる</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ツタ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>オク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -10432,7 +17056,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10538,6 +17162,107 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFE50000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF001080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF795E26"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFAF00DB"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF267F99"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFEE0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF098658"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -10565,7 +17290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -10603,14 +17328,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10969,7 +17727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B720D344-0C0C-4599-8EC3-7FB0A5621BD8}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -11098,7 +17856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FD9579-66F7-4AD5-915F-1E3C82A622BD}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
@@ -11228,7 +17986,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>406</v>
       </c>
     </row>
@@ -11443,7 +18201,7 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="13" t="s">
         <v>405</v>
       </c>
     </row>
@@ -11451,7 +18209,7 @@
       <c r="B62" s="8"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="13" t="s">
         <v>406</v>
       </c>
     </row>
@@ -11613,8 +18371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2B0AF6-32D3-4CAF-B4C9-9E652612B454}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.58203125" defaultRowHeight="18"/>
@@ -11622,33 +18380,33 @@
     <col min="1" max="16384" width="37.58203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="36">
       <c r="A1" s="4" t="s">
-        <v>531</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>532</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="36">
       <c r="A3" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="54">
+    </row>
+    <row r="5" spans="1:2" ht="108">
       <c r="A5" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>543</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11656,12 +18414,12 @@
         <v>286</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11670,7 +18428,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>406</v>
       </c>
     </row>
@@ -11731,7 +18489,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>483</v>
@@ -11739,7 +18497,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>484</v>
@@ -11747,10 +18505,10 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -11775,12 +18533,12 @@
     </row>
     <row r="30" spans="1:2">
       <c r="B30" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>461</v>
@@ -11788,7 +18546,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>462</v>
@@ -11796,7 +18554,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>463</v>
@@ -11812,15 +18570,15 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="15" t="s">
-        <v>550</v>
+      <c r="A36" s="14" t="s">
+        <v>548</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>466</v>
@@ -11828,7 +18586,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>467</v>
@@ -11836,7 +18594,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>468</v>
@@ -11844,7 +18602,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>469</v>
@@ -11852,7 +18610,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>470</v>
@@ -11860,7 +18618,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>471</v>
@@ -11868,7 +18626,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B42" s="8"/>
     </row>
@@ -11879,15 +18637,15 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="B44" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>472</v>
@@ -11895,7 +18653,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>473</v>
@@ -11903,7 +18661,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>474</v>
@@ -11911,7 +18669,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>476</v>
@@ -11919,7 +18677,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>477</v>
@@ -11927,7 +18685,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>478</v>
@@ -11935,7 +18693,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>479</v>
@@ -11943,7 +18701,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>480</v>
@@ -11951,7 +18709,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>481</v>
@@ -11979,7 +18737,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="B58" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -11999,6 +18757,1003 @@
     </row>
     <row r="62" spans="1:2">
       <c r="B62" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DFA4DF-5EAA-478C-A525-47E756848671}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="33.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="54">
+      <c r="B2" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="54">
+      <c r="B3" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72">
+      <c r="B4" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="36">
+      <c r="B5" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="108">
+      <c r="B7" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="72">
+      <c r="A8" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="36">
+      <c r="B9" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="36">
+      <c r="B10" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="36">
+      <c r="B11" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C00C577-D7B0-4622-AC57-802CE99EDDD2}">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.5" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="33.5" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19">
+      <c r="A6" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="16" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="17"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19">
+      <c r="A26" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" s="16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="36">
+      <c r="A31" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="36">
+      <c r="A34" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="36">
+      <c r="A35" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="72">
+      <c r="A37" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D559FC-AB09-49BB-90EC-A4D965D373E5}">
+  <dimension ref="A1:B122"/>
+  <sheetViews>
+    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="37.1640625" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="37.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" style="19"/>
+    <col min="3" max="16384" width="37.1640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="19" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="22" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="22" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="22" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="22" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="22" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="22" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="22" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="22" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="22" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="22" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="22" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="21" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="23"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="24" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="22" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="22" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="22" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="22" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="22" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="22" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="22" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="22" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="54">
+      <c r="A44" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="36">
+      <c r="A47" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="B51" s="23"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" s="22" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" s="22" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" s="21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="20" customFormat="1" ht="33.5">
+      <c r="A56" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="20" customFormat="1" ht="33.5">
+      <c r="B57" s="25" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="20" customFormat="1" ht="33.5">
+      <c r="B58" s="25" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="20" customFormat="1" ht="33.5">
+      <c r="B59" s="25" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="20" customFormat="1" ht="33.5">
+      <c r="B60" s="25" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="20" customFormat="1" ht="33.5">
+      <c r="B61" s="25" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="20" customFormat="1" ht="33.5">
+      <c r="B62" s="25" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="20" customFormat="1">
+      <c r="B63" s="25"/>
+    </row>
+    <row r="64" spans="1:2" s="20" customFormat="1">
+      <c r="B64" s="25" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="20" customFormat="1">
+      <c r="B65" s="21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="20" customFormat="1">
+      <c r="B66" s="22" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="20" customFormat="1">
+      <c r="A67" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="20" customFormat="1">
+      <c r="A68" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="20" customFormat="1">
+      <c r="B69" s="22" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" s="22" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" s="22" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" s="22" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" s="22" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" s="22" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="B75" s="21" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="B76" s="23"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77" s="21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="B78" s="26" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" s="23"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="B80" s="26" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="22" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="22" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="22" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="22" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="22" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="22" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="22" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="22" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="22" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="22" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="22" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="22" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="22" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="22" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="22" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="22" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="22" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="22" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="22" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="22" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="22" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="22" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="22" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="22" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="22" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="22" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="22" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="22" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="22" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="22" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="22" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="22" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="22" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="22" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="22" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="22" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="22" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="22" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="22" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="21" t="s">
         <v>412</v>
       </c>
     </row>
@@ -12717,7 +20472,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -12725,19 +20480,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="7" t="s">
         <v>173</v>
       </c>
@@ -14555,7 +22310,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>405</v>
       </c>
     </row>
@@ -14563,7 +22318,7 @@
       <c r="B45" s="8"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>406</v>
       </c>
     </row>

--- a/Vue.js学習.xlsx
+++ b/Vue.js学習.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abbbb\SVN\LearningVue.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B75FAA-BFED-45E5-8004-870D70611AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C7A5BD-700E-41EA-9D69-3BC9D49BB598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="779" firstSheet="34" activeTab="43" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="779" firstSheet="14" activeTab="43" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1Vue3のセットアップ" sheetId="1" state="hidden" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="P181プロジェクト開発" sheetId="10" state="hidden" r:id="rId9"/>
     <sheet name="P187プロジェクト開発-index.htmlから先" sheetId="11" state="hidden" r:id="rId10"/>
     <sheet name="P190-P199" sheetId="12" state="hidden" r:id="rId11"/>
-    <sheet name="P199-P204まで" sheetId="13" state="hidden" r:id="rId12"/>
+    <sheet name="P199-P204まで" sheetId="13" r:id="rId12"/>
     <sheet name="P204-P205" sheetId="14" state="hidden" r:id="rId13"/>
-    <sheet name="P205テンプレート参照" sheetId="15" state="hidden" r:id="rId14"/>
-    <sheet name="P209-計算アプリ作成-calcコンポーネント" sheetId="16" state="hidden" r:id="rId15"/>
+    <sheet name="P205テンプレート参照" sheetId="15" r:id="rId14"/>
+    <sheet name="P209-計算アプリ作成-calcコンポーネント" sheetId="16" r:id="rId15"/>
     <sheet name="P223まとめ" sheetId="17" state="hidden" r:id="rId16"/>
     <sheet name="4章P226" sheetId="18" state="hidden" r:id="rId17"/>
     <sheet name="P233-" sheetId="20" state="hidden" r:id="rId18"/>
@@ -50349,7 +50349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -50438,9 +50438,6 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -50453,14 +50450,8 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -50469,9 +50460,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -50494,6 +50482,9 @@
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -51496,8 +51487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2B0AF6-32D3-4CAF-B4C9-9E652612B454}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.58203125" defaultRowHeight="18"/>
@@ -51978,8 +51969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C00C577-D7B0-4622-AC57-802CE99EDDD2}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.5" defaultRowHeight="18"/>
@@ -52190,8 +52181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D559FC-AB09-49BB-90EC-A4D965D373E5}">
   <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.1640625" defaultRowHeight="18"/>
@@ -58951,7 +58942,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="45" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -58959,19 +58950,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="30"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="7" t="s">
         <v>173</v>
       </c>
@@ -61215,17 +61206,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="31"/>
+    <col min="1" max="1" width="38.6640625" style="30"/>
     <col min="2" max="16384" width="38.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>1574</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -61248,7 +61239,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="162">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>1579</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -61259,7 +61250,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>1582</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -61300,7 +61291,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="35"/>
+      <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="18" t="s">
@@ -61377,7 +61368,7 @@
       </c>
     </row>
     <row r="30" spans="2:3" ht="58">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="34" t="s">
         <v>1594</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -61395,7 +61386,7 @@
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="35"/>
+      <c r="B33" s="8"/>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="18" t="s">
@@ -61408,7 +61399,7 @@
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="35"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="20" t="s">
@@ -61453,7 +61444,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBA5AAD-9DBA-4496-8275-A9CBC148F0D0}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
@@ -61461,56 +61452,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="31"/>
-    <col min="2" max="2" width="38.6640625" style="37"/>
-    <col min="3" max="16384" width="38.6640625" style="4"/>
+    <col min="1" max="1" width="38.6640625" style="30"/>
+    <col min="2" max="16384" width="38.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>1596</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="4" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="35" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="36" t="s">
         <v>1597</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="36" t="s">
         <v>1598</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="36" t="s">
         <v>1599</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="36" t="s">
         <v>1600</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="36" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="36" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="36" customHeight="1">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="36" t="s">
         <v>1602</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -61521,7 +61511,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="36" t="s">
         <v>1603</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -61532,22 +61522,22 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="36" t="s">
         <v>1604</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="36" t="s">
         <v>1605</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="36" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="36" t="s">
         <v>411</v>
       </c>
     </row>
@@ -61557,98 +61547,98 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="37" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="43.5">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>1611</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="43.5">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>1612</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="37" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="41"/>
+      <c r="B22" s="16"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="37" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="29">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="38" t="s">
         <v>1610</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="29">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="39" t="s">
         <v>1613</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="41"/>
+      <c r="B26" s="16"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="40" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="34" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="34" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="34" t="s">
         <v>1614</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="34" t="s">
         <v>1615</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="34" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="37" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="36">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="30" t="s">
         <v>1616</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -61690,22 +61680,10 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="B43" s="4"/>
-    </row>
     <row r="44" spans="1:2">
       <c r="B44" s="4" t="s">
         <v>1625</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="B47" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -61715,7 +61693,7 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804F676C-6E1A-4327-B5A0-FAB11D3F2457}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
@@ -61723,16 +61701,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="31"/>
-    <col min="2" max="2" width="38.6640625" style="37"/>
-    <col min="3" max="16384" width="38.6640625" style="4"/>
+    <col min="1" max="1" width="38.6640625" style="30"/>
+    <col min="2" max="16384" width="38.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>1626</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="4" t="s">
         <v>1627</v>
       </c>
     </row>
@@ -61742,7 +61719,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="36">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>1629</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -61765,7 +61742,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="90">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>1634</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -61773,7 +61750,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>1461</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -61801,7 +61778,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>1641</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -61819,7 +61796,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>1645</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -61835,7 +61812,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="54">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>1649</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -61867,11 +61844,8 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="4"/>
-    </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>1656</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -61879,7 +61853,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="72">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>1461</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -61891,31 +61865,28 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="4"/>
-    </row>
     <row r="29" spans="1:3">
       <c r="B29" s="4" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="37" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="34" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="34" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="29">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="34" t="s">
         <v>1663</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -61923,55 +61894,55 @@
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="34" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="37" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="41"/>
+      <c r="B36" s="16"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="37" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="39" t="s">
         <v>1664</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="40" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="34" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="34" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="34" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="34" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="36">
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="34" t="s">
         <v>1665</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -61979,7 +61950,7 @@
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="34" t="s">
         <v>1666</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -61987,7 +61958,7 @@
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="34" t="s">
         <v>1667</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -61995,37 +61966,37 @@
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="34" t="s">
         <v>1660</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="43.5">
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="34" t="s">
         <v>1668</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="34" t="s">
         <v>1669</v>
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="34" t="s">
         <v>1670</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="34" t="s">
         <v>1671</v>
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="34" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="34" t="s">
         <v>1672</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -62033,54 +62004,24 @@
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="34" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="34" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="37" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -62293,7 +62234,7 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AEBBB1-3080-466A-AD11-F34FED3CFCE3}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
@@ -62301,29 +62242,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="31"/>
-    <col min="2" max="2" width="38.6640625" style="37"/>
-    <col min="3" max="16384" width="38.6640625" style="4"/>
+    <col min="1" max="1" width="38.6640625" style="30"/>
+    <col min="2" max="16384" width="38.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>1678</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="4" t="s">
         <v>1679</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="B2" s="4"/>
-    </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>1669</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>1670</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -62331,7 +62268,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>1671</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -62339,7 +62276,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="36">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>781</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -62347,7 +62284,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="36">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>1672</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -62355,18 +62292,15 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="36">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>481</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="4"/>
-    </row>
     <row r="10" spans="1:3" ht="36">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>1686</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -62413,11 +62347,8 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" s="4"/>
-    </row>
     <row r="20" spans="1:2" ht="54">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>1696</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -62435,7 +62366,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>1702</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -62443,18 +62374,15 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" s="4"/>
-    </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>1703</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -62462,7 +62390,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>1461</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -62480,7 +62408,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="27.5">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="37" t="s">
         <v>1708</v>
       </c>
     </row>
@@ -62489,79 +62417,76 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="4"/>
-    </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="37" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="34" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="34" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="29">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="34" t="s">
         <v>1663</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="34" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="37" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="41"/>
+      <c r="B39" s="16"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="37" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="39" t="s">
         <v>1711</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="40" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="34" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="34" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="34" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="34" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="34" t="s">
         <v>1712</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -62569,32 +62494,32 @@
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="34" t="s">
         <v>1666</v>
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="34" t="s">
         <v>1667</v>
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="34" t="s">
         <v>1660</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="43.5">
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="34" t="s">
         <v>1668</v>
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="34" t="s">
         <v>1669</v>
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="34" t="s">
         <v>1713</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -62602,7 +62527,7 @@
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="34" t="s">
         <v>1671</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -62610,7 +62535,7 @@
       </c>
     </row>
     <row r="55" spans="2:3" ht="36">
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="34" t="s">
         <v>781</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -62618,7 +62543,7 @@
       </c>
     </row>
     <row r="56" spans="2:3" ht="36">
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="34" t="s">
         <v>1672</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -62626,7 +62551,7 @@
       </c>
     </row>
     <row r="57" spans="2:3" ht="36">
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="34" t="s">
         <v>481</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -62634,7 +62559,7 @@
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="34" t="s">
         <v>410</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -62642,7 +62567,7 @@
       </c>
     </row>
     <row r="59" spans="2:3" ht="36">
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="34" t="s">
         <v>411</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -62650,30 +62575,9 @@
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="37" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -62685,18 +62589,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13DD074-9314-4764-B6F5-6C6C373C4303}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="31"/>
+    <col min="1" max="1" width="38.6640625" style="30"/>
     <col min="2" max="16384" width="38.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>1727</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -62714,42 +62618,42 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="37" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>1732</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="43.5">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>1733</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="36">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>1734</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -62757,75 +62661,75 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="37" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="41"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="37" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="39" t="s">
         <v>1711</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="40" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="34" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="34" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="34" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="34" t="s">
         <v>1712</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="34" t="s">
         <v>1666</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="34" t="s">
         <v>1735</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="34" t="s">
         <v>1660</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="36">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="34" t="s">
         <v>1736</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -62836,7 +62740,7 @@
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="34" t="s">
         <v>1737</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -62844,22 +62748,22 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="29">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="34" t="s">
         <v>1738</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="34" t="s">
         <v>1739</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="34" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="36">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="34" t="s">
         <v>1740</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -62867,17 +62771,17 @@
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="34" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="34" t="s">
         <v>1741</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="34" t="s">
         <v>1742</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -62885,22 +62789,22 @@
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="34" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="34" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="37" t="s">
         <v>412</v>
       </c>
     </row>
@@ -62914,18 +62818,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3105C845-4219-42CB-A4DF-4F32CEEBF9FA}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C46" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="31"/>
+    <col min="1" max="1" width="38.6640625" style="30"/>
     <col min="2" max="16384" width="38.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>1749</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -62943,7 +62847,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>1753</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -62980,60 +62884,60 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="41" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="47" customHeight="1">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="36" t="s">
         <v>1768</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="36" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="31">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="36" t="s">
         <v>1764</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="36" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="41" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20">
-      <c r="B16" s="46"/>
+      <c r="B16" s="42"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="41" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="37.5" customHeight="1">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="43" t="s">
         <v>1714</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="35" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="36" t="s">
         <v>1715</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="36" t="s">
         <v>1716</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -63041,32 +62945,32 @@
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="36" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="36" t="s">
         <v>1765</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="36" t="s">
         <v>1717</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="36" t="s">
         <v>1718</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="36" t="s">
         <v>1660</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="31">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="36" t="s">
         <v>1766</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -63077,7 +62981,7 @@
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="36" t="s">
         <v>1767</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -63085,7 +62989,7 @@
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="36" t="s">
         <v>1680</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -63093,7 +62997,7 @@
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="36" t="s">
         <v>481</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -63101,17 +63005,17 @@
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="36" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="36" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="41" t="s">
         <v>412</v>
       </c>
     </row>
@@ -63121,7 +63025,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="30" t="s">
         <v>1776</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -63134,7 +63038,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="36">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>1779</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -63184,18 +63088,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B572399-AF4D-42DC-B785-DAB2BEA4626C}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="31"/>
+    <col min="1" max="1" width="38.6640625" style="30"/>
     <col min="2" max="16384" width="38.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="54">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>1788</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -63213,120 +63117,120 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>1762</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>1710</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>1661</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>1660</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>1763</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>1731</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>1662</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>1791</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>1792</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>1793</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>1794</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="33"/>
+      <c r="B25" s="32"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="31" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="31" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="44" t="s">
         <v>1796</v>
       </c>
     </row>
@@ -63356,7 +63260,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="54">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="30" t="s">
         <v>1802</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -63383,23 +63287,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159617DE-CC57-4200-9776-17CD4A6CE8EB}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="31"/>
+    <col min="1" max="1" width="38.6640625" style="30"/>
     <col min="2" max="16384" width="38.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>1806</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>1807</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -63417,7 +63321,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="72">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>1811</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -63425,7 +63329,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>1813</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -63478,7 +63382,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>1824</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -63511,7 +63415,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>1831</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -63534,7 +63438,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>1837</v>
       </c>
       <c r="B26" s="4" t="s">
